--- a/⑦2023町内会費班別収納金額集計表.xlsx
+++ b/⑦2023町内会費班別収納金額集計表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/951bde4d8205714a/◆駒寄◆/★会計★/①会計共通(町内会費・会館維持費収納含む)/2024 R6年度/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="547" documentId="13_ncr:4000b_{1D38E796-1BAD-4F80-BF49-1EBEC9FE4441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8D53FF81-F1B1-43FA-AB6E-78E14D696983}"/>
+  <xr:revisionPtr revIDLastSave="579" documentId="13_ncr:4000b_{1D38E796-1BAD-4F80-BF49-1EBEC9FE4441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D0228088-EC37-4672-84FE-18994398E55A}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">会館維持費!$A$1:$G$54</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">町内会費!$A$1:$G$48</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">町内会費!$A$1:$G$50</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="53">
   <si>
     <t>１区１班</t>
     <rPh sb="1" eb="2">
@@ -572,19 +572,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>各世帯　185件収納</t>
-    <rPh sb="0" eb="3">
-      <t>カクセタイ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ケン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>シュウノウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>～7月14日</t>
     <rPh sb="2" eb="3">
       <t>ガツ</t>
@@ -625,6 +612,38 @@
       <t>キクチ</t>
     </rPh>
     <rPh sb="11" eb="12">
+      <t>エン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>各世帯3,600円　185件収納</t>
+    <rPh sb="0" eb="3">
+      <t>カクセタイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>エン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シュウノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>１区12班古川さん300円</t>
+    <rPh sb="1" eb="2">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ハン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>フルカワ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
       <t>エン</t>
     </rPh>
     <phoneticPr fontId="2"/>
@@ -697,7 +716,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -734,6 +753,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="42">
     <border>
@@ -1278,7 +1303,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1392,9 +1417,6 @@
     <xf numFmtId="5" fontId="7" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="56" fontId="0" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="56" fontId="0" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="56" fontId="0" fillId="4" borderId="40" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="56" fontId="0" fillId="5" borderId="40" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="56" fontId="0" fillId="6" borderId="40" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -1417,6 +1439,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="56" fontId="0" fillId="7" borderId="40" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1743,10 +1767,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I49"/>
+  <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
@@ -1760,15 +1784,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
     </row>
     <row r="2" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
@@ -1811,7 +1835,9 @@
       <c r="D4" s="50">
         <v>600</v>
       </c>
-      <c r="E4" s="50"/>
+      <c r="E4" s="50">
+        <v>300</v>
+      </c>
       <c r="F4" s="50"/>
       <c r="G4" s="51" t="s">
         <v>24</v>
@@ -1923,7 +1949,7 @@
       <c r="C10" s="2">
         <v>5</v>
       </c>
-      <c r="D10" s="75">
+      <c r="D10" s="74">
         <v>1</v>
       </c>
       <c r="E10" s="2"/>
@@ -2034,17 +2060,19 @@
       </c>
       <c r="B16" s="22">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C16" s="22">
         <v>14</v>
       </c>
       <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
+      <c r="E16" s="75">
+        <v>1</v>
+      </c>
       <c r="F16" s="22"/>
       <c r="G16" s="47">
         <f t="shared" si="1"/>
-        <v>50400</v>
+        <v>50700</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -2056,7 +2084,7 @@
       </c>
       <c r="B18" s="17">
         <f>SUM(B5:B16)</f>
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C18" s="17">
         <f>SUM(C5:C16)</f>
@@ -2068,7 +2096,7 @@
       </c>
       <c r="E18" s="17">
         <f>SUM(E5:E16)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" s="17">
         <f>SUM(F5:F16)</f>
@@ -2076,7 +2104,7 @@
       </c>
       <c r="G18" s="45">
         <f>SUM(G5:G16)</f>
-        <v>324600</v>
+        <v>324900</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
@@ -2136,7 +2164,7 @@
       <c r="C23" s="13">
         <v>9</v>
       </c>
-      <c r="D23" s="74">
+      <c r="D23" s="73">
         <v>-1</v>
       </c>
       <c r="E23" s="13"/>
@@ -2209,17 +2237,17 @@
       </c>
       <c r="B27" s="2">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C27" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="44">
         <f>C27*$C$22+D27*$D$22+E27*$E$22+F27*$F$22</f>
-        <v>25200</v>
+        <v>32400</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -2247,17 +2275,17 @@
       </c>
       <c r="B29" s="2">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="44">
         <f t="shared" si="3"/>
-        <v>28800</v>
+        <v>32400</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -2364,11 +2392,11 @@
       </c>
       <c r="B36" s="17">
         <f t="shared" ref="B36:G36" si="4">SUM(B23:B34)</f>
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C36" s="17">
         <f>SUM(C23:C34)</f>
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D36" s="17">
         <f t="shared" si="4"/>
@@ -2384,7 +2412,7 @@
       </c>
       <c r="G36" s="45">
         <f t="shared" si="4"/>
-        <v>330000</v>
+        <v>340800</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -2394,15 +2422,15 @@
       <c r="A38" s="57"/>
       <c r="C38">
         <f>C18+C36</f>
-        <v>182</v>
-      </c>
-      <c r="E38" s="69"/>
+        <v>185</v>
+      </c>
+      <c r="E38" s="68"/>
       <c r="F38" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="G38" s="65">
+      <c r="G38" s="64">
         <f>G18+G36</f>
-        <v>654600</v>
+        <v>665700</v>
       </c>
     </row>
     <row r="41" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2411,15 +2439,15 @@
       </c>
       <c r="B41" s="53"/>
       <c r="C41" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D41" s="53" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E41" s="53"/>
       <c r="F41" s="53"/>
       <c r="G41" s="54">
-        <f>3600*185</f>
+        <f>3600*C38</f>
         <v>666000</v>
       </c>
     </row>
@@ -2430,7 +2458,7 @@
       </c>
       <c r="B43" s="53"/>
       <c r="C43" s="53" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D43" s="53"/>
       <c r="E43" s="53"/>
@@ -2441,17 +2469,17 @@
         <f>G41+F43</f>
         <v>664800</v>
       </c>
-      <c r="H43" s="70"/>
-      <c r="I43" s="70"/>
+      <c r="H43" s="69"/>
+      <c r="I43" s="69"/>
     </row>
     <row r="44" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.15"/>
     <row r="45" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="62">
+      <c r="A45" s="61">
         <v>45704</v>
       </c>
       <c r="B45" s="53"/>
       <c r="C45" s="53" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D45" s="53"/>
       <c r="E45" s="53"/>
@@ -2462,22 +2490,43 @@
         <f>G43+F45</f>
         <v>665400</v>
       </c>
-      <c r="H45" s="70"/>
-      <c r="I45" s="70"/>
+      <c r="H45" s="69"/>
+      <c r="I45" s="69"/>
     </row>
     <row r="46" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.15"/>
-    <row r="47" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.15"/>
-    <row r="48" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="67" t="s">
+    <row r="47" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="76">
+        <v>45720</v>
+      </c>
+      <c r="B47" s="53"/>
+      <c r="C47" s="53" t="s">
+        <v>52</v>
+      </c>
+      <c r="D47" s="53"/>
+      <c r="E47" s="53"/>
+      <c r="F47" s="54">
+        <v>300</v>
+      </c>
+      <c r="G47" s="54">
+        <f>G45+F47</f>
+        <v>665700</v>
+      </c>
+      <c r="H47" s="69"/>
+      <c r="I47" s="69"/>
+    </row>
+    <row r="48" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.15"/>
+    <row r="49" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.15"/>
+    <row r="50" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="B48" s="66"/>
-      <c r="C48" s="66">
+      <c r="B50" s="65"/>
+      <c r="C50" s="65">
         <f>SUM(C18:F18)+SUM(C36:F36)</f>
-        <v>182</v>
-      </c>
-    </row>
-    <row r="49" outlineLevel="1" x14ac:dyDescent="0.15"/>
+        <v>186</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
@@ -2503,7 +2552,7 @@
   <dimension ref="A1:I55"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
@@ -2516,15 +2565,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="70" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
     </row>
     <row r="2" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
@@ -2564,8 +2613,12 @@
       <c r="C4" s="50">
         <v>1200</v>
       </c>
-      <c r="D4" s="61"/>
-      <c r="E4" s="50"/>
+      <c r="D4" s="50">
+        <v>200</v>
+      </c>
+      <c r="E4" s="50">
+        <v>100</v>
+      </c>
       <c r="F4" s="50"/>
       <c r="G4" s="51" t="s">
         <v>24</v>
@@ -2672,17 +2725,19 @@
       </c>
       <c r="B10" s="2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C10" s="2">
         <v>5</v>
       </c>
-      <c r="D10" s="2"/>
+      <c r="D10" s="74">
+        <v>1</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="44">
         <f>C10*$C$4+D10*$D$4+E10*$E$4+F10*$F$4</f>
-        <v>6000</v>
+        <v>6200</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -2786,19 +2841,21 @@
       </c>
       <c r="B16" s="22">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C16" s="22">
         <v>14</v>
       </c>
       <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
+      <c r="E16" s="75">
+        <v>1</v>
+      </c>
       <c r="F16" s="22"/>
       <c r="G16" s="47">
-        <f t="shared" si="1"/>
-        <v>16800</v>
-      </c>
-      <c r="I16" s="70"/>
+        <f>C16*$C$4+D16*$D$4+E16*$E$4+F16*$F$4</f>
+        <v>16900</v>
+      </c>
+      <c r="I16" s="69"/>
     </row>
     <row r="17" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
@@ -2809,19 +2866,19 @@
       </c>
       <c r="B18" s="17">
         <f>SUM(B5:B16)</f>
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C18" s="17">
         <f>SUM(C5:C16)</f>
         <v>89</v>
       </c>
-      <c r="D18" s="68">
+      <c r="D18" s="67">
         <f>0-SUM(D5:D16)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E18" s="17">
         <f>SUM(E5:E16)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" s="17">
         <f>SUM(F5:F16)</f>
@@ -2829,7 +2886,7 @@
       </c>
       <c r="G18" s="45">
         <f>SUM(G5:G16)</f>
-        <v>106800</v>
+        <v>107100</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
@@ -2869,7 +2926,9 @@
       <c r="C22" s="50">
         <v>1200</v>
       </c>
-      <c r="D22" s="50"/>
+      <c r="D22" s="50">
+        <v>400</v>
+      </c>
       <c r="E22" s="50"/>
       <c r="F22" s="50"/>
       <c r="G22" s="51" t="s">
@@ -2882,17 +2941,19 @@
       </c>
       <c r="B23" s="13">
         <f t="shared" ref="B23:B34" si="2">SUM(C23:F23)</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C23" s="13">
         <v>9</v>
       </c>
-      <c r="D23" s="13"/>
+      <c r="D23" s="73">
+        <v>-1</v>
+      </c>
       <c r="E23" s="13"/>
       <c r="F23" s="13"/>
       <c r="G23" s="43">
         <f>C23*$C$22+D23*$D$22+E23*$E$22+F23*$F$22</f>
-        <v>10800</v>
+        <v>10400</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -2958,17 +3019,17 @@
       </c>
       <c r="B27" s="2">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="44">
         <f t="shared" si="3"/>
-        <v>8400</v>
+        <v>9600</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -2996,17 +3057,17 @@
       </c>
       <c r="B29" s="2">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="44">
         <f t="shared" si="3"/>
-        <v>9600</v>
+        <v>10800</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -3113,15 +3174,15 @@
       </c>
       <c r="B36" s="17">
         <f t="shared" ref="B36:F36" si="4">SUM(B23:B34)</f>
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C36" s="17">
         <f>SUM(C23:C34)</f>
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D36" s="17">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E36" s="17">
         <f t="shared" si="4"/>
@@ -3133,7 +3194,7 @@
       </c>
       <c r="G36" s="45">
         <f>SUM(G23:G34)</f>
-        <v>109200</v>
+        <v>111200</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -3143,15 +3204,15 @@
       <c r="A38" s="57"/>
       <c r="C38">
         <f>C18+C36</f>
-        <v>180</v>
-      </c>
-      <c r="E38" s="69"/>
+        <v>182</v>
+      </c>
+      <c r="E38" s="68"/>
       <c r="F38" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="G38" s="65">
+      <c r="G38" s="64">
         <f>G18+G36</f>
-        <v>216000</v>
+        <v>218300</v>
       </c>
     </row>
     <row r="40" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3179,7 +3240,7 @@
       <c r="E42" s="53"/>
       <c r="F42" s="53"/>
       <c r="G42" s="54"/>
-      <c r="I42" s="70">
+      <c r="I42" s="69">
         <f>G40+G42</f>
         <v>214800</v>
       </c>
@@ -3193,7 +3254,7 @@
       <c r="E44" s="53"/>
       <c r="F44" s="53"/>
       <c r="G44" s="58"/>
-      <c r="I44" s="70">
+      <c r="I44" s="69">
         <f>I42+G44</f>
         <v>214800</v>
       </c>
@@ -3207,62 +3268,62 @@
       <c r="E46" s="53"/>
       <c r="F46" s="53"/>
       <c r="G46" s="54"/>
-      <c r="I46" s="70">
+      <c r="I46" s="69">
         <f>I44+G46</f>
         <v>214800</v>
       </c>
     </row>
     <row r="47" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.15"/>
     <row r="48" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="62"/>
+      <c r="A48" s="61"/>
       <c r="B48" s="53"/>
       <c r="C48" s="53"/>
       <c r="D48" s="53"/>
       <c r="E48" s="53"/>
       <c r="F48" s="53"/>
       <c r="G48" s="54"/>
-      <c r="I48" s="70">
+      <c r="I48" s="69">
         <f>I46+G48</f>
         <v>214800</v>
       </c>
     </row>
     <row r="49" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.15"/>
     <row r="50" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="63"/>
+      <c r="A50" s="62"/>
       <c r="B50" s="53"/>
       <c r="C50" s="53"/>
       <c r="D50" s="53"/>
       <c r="E50" s="53"/>
       <c r="F50" s="53"/>
       <c r="G50" s="54"/>
-      <c r="I50" s="70">
+      <c r="I50" s="69">
         <f>I48+G50</f>
         <v>214800</v>
       </c>
     </row>
     <row r="51" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.15"/>
     <row r="52" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="64"/>
+      <c r="A52" s="63"/>
       <c r="B52" s="53"/>
       <c r="C52" s="53"/>
       <c r="D52" s="53"/>
       <c r="E52" s="53"/>
       <c r="F52" s="53"/>
       <c r="G52" s="54"/>
-      <c r="I52" s="70">
+      <c r="I52" s="69">
         <f>I50+G52</f>
         <v>214800</v>
       </c>
     </row>
     <row r="53" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.15"/>
     <row r="54" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="67" t="s">
+      <c r="A54" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="B54" s="66"/>
-      <c r="C54" s="66">
+      <c r="B54" s="65"/>
+      <c r="C54" s="65">
         <f>SUM(C18:F18)+SUM(C36:F36)</f>
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F54" s="55" t="s">
         <v>43</v>
@@ -3307,15 +3368,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
     </row>
     <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A2" s="7"/>
@@ -3952,10 +4013,10 @@
         <v>37</v>
       </c>
       <c r="E41" s="4"/>
-      <c r="F41" s="72" t="s">
+      <c r="F41" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="G41" s="73"/>
+      <c r="G41" s="72"/>
     </row>
     <row r="42" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="38">
